--- a/target/classes/excel/finance.xlsx
+++ b/target/classes/excel/finance.xlsx
@@ -31,7 +31,7 @@
     <t>流动资产：</t>
   </si>
   <si>
-    <t>{{#fe: 1 t.begin</t>
+    <t>{{v_fe: 1 t.begin</t>
   </si>
   <si>
     <t>t.end}}</t>
@@ -40,649 +40,649 @@
     <t xml:space="preserve">        货币资金</t>
   </si>
   <si>
-    <t>{{#fe: 2 t.begin</t>
+    <t>{{v_fe: 2 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        结算备付金</t>
   </si>
   <si>
-    <t>{{#fe: 3 t.begin</t>
+    <t>{{v_fe: 3 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        拆出资金</t>
   </si>
   <si>
-    <t>{{#fe: 4 t.begin</t>
+    <t>{{v_fe: 4 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        交易性金融资产</t>
   </si>
   <si>
-    <t>{{#fe: 5 t.begin</t>
+    <t>{{v_fe: 5 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        应收票据</t>
   </si>
   <si>
-    <t>{{#fe: 6 t.begin</t>
+    <t>{{v_fe: 6 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        应收账款</t>
   </si>
   <si>
-    <t>{{#fe: 7 t.begin</t>
+    <t>{{v_fe: 7 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        预付款项</t>
   </si>
   <si>
-    <t>{{#fe: 8 t.begin</t>
+    <t>{{v_fe: 8 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        应收保费</t>
   </si>
   <si>
-    <t>{{#fe: 9 t.begin</t>
+    <t>{{v_fe: 9 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        应收分保账款</t>
   </si>
   <si>
-    <t>{{#fe: 10 t.begin</t>
+    <t>{{v_fe: 10 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        应收分保合同准备金</t>
   </si>
   <si>
-    <t>{{#fe: 11 t.begin</t>
+    <t>{{v_fe: 11 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        应收利息</t>
   </si>
   <si>
-    <t>{{#fe: 12 t.begin</t>
+    <t>{{v_fe: 12 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        其他应收款</t>
   </si>
   <si>
-    <t>{{#fe: 13 t.begin</t>
+    <t>{{v_fe: 13 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        应收股利</t>
   </si>
   <si>
-    <t>{{#fe: 14 t.begin</t>
+    <t>{{v_fe: 14 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        买入返售金融资产</t>
   </si>
   <si>
-    <t>{{#fe: 15 t.begin</t>
+    <t>{{v_fe: 15 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        存货</t>
   </si>
   <si>
-    <t>{{#fe: 16 t.begin</t>
+    <t>{{v_fe: 16 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        其中：消耗性生物资产</t>
   </si>
   <si>
-    <t>{{#fe: 17 t.begin</t>
+    <t>{{v_fe: 17 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        一年内到期非流动资产</t>
   </si>
   <si>
-    <t>{{#fe: 18 t.begin</t>
+    <t>{{v_fe: 18 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        待摊费用</t>
   </si>
   <si>
-    <t>{{#fe: 19 t.begin</t>
+    <t>{{v_fe: 19 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        其他流动资产</t>
   </si>
   <si>
-    <t>{{#fe: 20 t.begin</t>
+    <t>{{v_fe: 20 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        流动资产差额(特殊报表科目)</t>
   </si>
   <si>
-    <t>{{#fe: 21 t.begin</t>
+    <t>{{v_fe: 21 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        流动资产差额(合计平衡项目)</t>
   </si>
   <si>
-    <t>{{#fe: 22 t.begin</t>
+    <t>{{v_fe: 22 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">                流动资产合计</t>
   </si>
   <si>
-    <t>{{#fe: 23 t.begin</t>
+    <t>{{v_fe: 23 t.begin</t>
   </si>
   <si>
     <t>非流动资产：</t>
   </si>
   <si>
-    <t>{{#fe: 24 t.begin</t>
+    <t>{{v_fe: 24 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        发放贷款及垫款</t>
   </si>
   <si>
-    <t>{{#fe: 25 t.begin</t>
+    <t>{{v_fe: 25 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        可供出售金融资产</t>
   </si>
   <si>
-    <t>{{#fe: 26 t.begin</t>
+    <t>{{v_fe: 26 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        持有到期投资</t>
   </si>
   <si>
-    <t>{{#fe: 27 t.begin</t>
+    <t>{{v_fe: 27 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        长期应收账款</t>
   </si>
   <si>
-    <t>{{#fe: 28 t.begin</t>
+    <t>{{v_fe: 28 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        长期股权投资</t>
   </si>
   <si>
-    <t>{{#fe: 29 t.begin</t>
+    <t>{{v_fe: 29 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        投资性房地产</t>
   </si>
   <si>
-    <t>{{#fe: 30 t.begin</t>
+    <t>{{v_fe: 30 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        固定资产</t>
   </si>
   <si>
-    <t>{{#fe: 31 t.begin</t>
+    <t>{{v_fe: 31 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        在建工程</t>
   </si>
   <si>
-    <t>{{#fe: 32 t.begin</t>
+    <t>{{v_fe: 32 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        工程物资</t>
   </si>
   <si>
-    <t>{{#fe: 33 t.begin</t>
+    <t>{{v_fe: 33 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        固定资产清理</t>
   </si>
   <si>
-    <t>{{#fe: 34 t.begin</t>
+    <t>{{v_fe: 34 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        生产性生物资产</t>
   </si>
   <si>
-    <t>{{#fe: 35 t.begin</t>
+    <t>{{v_fe: 35 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        油气资产</t>
   </si>
   <si>
-    <t>{{#fe: 36 t.begin</t>
+    <t>{{v_fe: 36 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        无形资产</t>
   </si>
   <si>
-    <t>{{#fe: 37 t.begin</t>
+    <t>{{v_fe: 37 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        开发支出</t>
   </si>
   <si>
-    <t>{{#fe: 38 t.begin</t>
+    <t>{{v_fe: 38 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        商誉</t>
   </si>
   <si>
-    <t>{{#fe: 39 t.begin</t>
+    <t>{{v_fe: 39 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        长期待摊费用</t>
   </si>
   <si>
-    <t>{{#fe: 40 t.begin</t>
+    <t>{{v_fe: 40 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        递延所得税资产</t>
   </si>
   <si>
-    <t>{{#fe: 41 t.begin</t>
+    <t>{{v_fe: 41 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        其他非流动资产</t>
   </si>
   <si>
-    <t>{{#fe: 42 t.begin</t>
+    <t>{{v_fe: 42 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        非流动资产差额(特殊报表科目)</t>
   </si>
   <si>
-    <t>{{#fe: 43 t.begin</t>
+    <t>{{v_fe: 43 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        非流动资产差额(合计平衡项目)</t>
   </si>
   <si>
-    <t>{{#fe: 44 t.begin</t>
+    <t>{{v_fe: 44 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">                非流动资产合计</t>
   </si>
   <si>
-    <t>{{#fe: 45 t.begin</t>
+    <t>{{v_fe: 45 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        资产差额(特殊报表科目)</t>
   </si>
   <si>
-    <t>{{#fe: 46 t.begin</t>
+    <t>{{v_fe: 46 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        资产差额(合计平衡项目)</t>
   </si>
   <si>
-    <t>{{#fe: 47 t.begin</t>
+    <t>{{v_fe: 47 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">                        资产总计</t>
   </si>
   <si>
-    <t>{{#fe: 48 t.begin</t>
+    <t>{{v_fe: 48 t.begin</t>
   </si>
   <si>
     <t>流动负债：</t>
   </si>
   <si>
-    <t>{{#fe: 49 t.begin</t>
+    <t>{{v_fe: 49 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        短期借款</t>
   </si>
   <si>
-    <t>{{#fe: 50 t.begin</t>
+    <t>{{v_fe: 50 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        向中央银行借款</t>
   </si>
   <si>
-    <t>{{#fe: 51 t.begin</t>
+    <t>{{v_fe: 51 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        吸收存款及同业存放</t>
   </si>
   <si>
-    <t>{{#fe: 52 t.begin</t>
+    <t>{{v_fe: 52 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        拆入资金</t>
   </si>
   <si>
-    <t>{{#fe: 53 t.begin</t>
+    <t>{{v_fe: 53 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        交易性金融负债</t>
   </si>
   <si>
-    <t>{{#fe: 54 t.begin</t>
+    <t>{{v_fe: 54 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        应付票据</t>
   </si>
   <si>
-    <t>{{#fe: 55 t.begin</t>
+    <t>{{v_fe: 55 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        应付账款</t>
   </si>
   <si>
-    <t>{{#fe: 56 t.begin</t>
+    <t>{{v_fe: 56 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        预收款项</t>
   </si>
   <si>
-    <t>{{#fe: 57 t.begin</t>
+    <t>{{v_fe: 57 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        卖出回购金融资产款</t>
   </si>
   <si>
-    <t>{{#fe: 58 t.begin</t>
+    <t>{{v_fe: 58 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        应付手续费及佣金</t>
   </si>
   <si>
-    <t>{{#fe: 59 t.begin</t>
+    <t>{{v_fe: 59 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        应付职工薪酬</t>
   </si>
   <si>
-    <t>{{#fe: 60 t.begin</t>
+    <t>{{v_fe: 60 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        应交税费</t>
   </si>
   <si>
-    <t>{{#fe: 61 t.begin</t>
+    <t>{{v_fe: 61 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        应付利息</t>
   </si>
   <si>
-    <t>{{#fe: 62 t.begin</t>
+    <t>{{v_fe: 62 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        其他应付款</t>
   </si>
   <si>
-    <t>{{#fe: 63 t.begin</t>
+    <t>{{v_fe: 63 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        应付分保账款</t>
   </si>
   <si>
-    <t>{{#fe: 64 t.begin</t>
+    <t>{{v_fe: 64 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        保险合同准备金</t>
   </si>
   <si>
-    <t>{{#fe: 65 t.begin</t>
+    <t>{{v_fe: 65 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        代理买卖证券款</t>
   </si>
   <si>
-    <t>{{#fe: 66 t.begin</t>
+    <t>{{v_fe: 66 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        代理承销证券款</t>
   </si>
   <si>
-    <t>{{#fe: 67 t.begin</t>
+    <t>{{v_fe: 67 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        一年内到期的非流动负债</t>
   </si>
   <si>
-    <t>{{#fe: 68 t.begin</t>
+    <t>{{v_fe: 68 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        应付股利</t>
   </si>
   <si>
-    <t>{{#fe: 69 t.begin</t>
+    <t>{{v_fe: 69 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        预提费用</t>
   </si>
   <si>
-    <t>{{#fe: 70 t.begin</t>
+    <t>{{v_fe: 70 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        递延收益-流动负债</t>
   </si>
   <si>
-    <t>{{#fe: 71 t.begin</t>
+    <t>{{v_fe: 71 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        应付短期债券</t>
   </si>
   <si>
-    <t>{{#fe: 72 t.begin</t>
+    <t>{{v_fe: 72 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        流动负债差额(特殊报表科目)</t>
   </si>
   <si>
-    <t>{{#fe: 73 t.begin</t>
+    <t>{{v_fe: 73 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        流动负债差额(合计平衡项目)</t>
   </si>
   <si>
-    <t>{{#fe: 74 t.begin</t>
+    <t>{{v_fe: 74 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        其他流动负债</t>
   </si>
   <si>
-    <t>{{#fe: 75 t.begin</t>
+    <t>{{v_fe: 75 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">                流动负债合计</t>
   </si>
   <si>
-    <t>{{#fe: 76 t.begin</t>
+    <t>{{v_fe: 76 t.begin</t>
   </si>
   <si>
     <t>非流动负债：</t>
   </si>
   <si>
-    <t>{{#fe: 77 t.begin</t>
+    <t>{{v_fe: 77 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        长期借款</t>
   </si>
   <si>
-    <t>{{#fe: 78 t.begin</t>
+    <t>{{v_fe: 78 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        应付债券</t>
   </si>
   <si>
-    <t>{{#fe: 79 t.begin</t>
+    <t>{{v_fe: 79 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        长期应付款</t>
   </si>
   <si>
-    <t>{{#fe: 80 t.begin</t>
+    <t>{{v_fe: 80 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        专项应付款</t>
   </si>
   <si>
-    <t>{{#fe: 81 t.begin</t>
+    <t>{{v_fe: 81 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        预计负债</t>
   </si>
   <si>
-    <t>{{#fe: 82 t.begin</t>
+    <t>{{v_fe: 82 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        递延所得税负债</t>
   </si>
   <si>
-    <t>{{#fe: 83 t.begin</t>
+    <t>{{v_fe: 83 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        递延收益-非流动负债</t>
   </si>
   <si>
-    <t>{{#fe: 84 t.begin</t>
+    <t>{{v_fe: 84 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        其他非流动负债</t>
   </si>
   <si>
-    <t>{{#fe: 85 t.begin</t>
+    <t>{{v_fe: 85 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        非流动负债差额(特殊报表科目)</t>
   </si>
   <si>
-    <t>{{#fe: 86 t.begin</t>
+    <t>{{v_fe: 86 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        非流动负债差额(合计平衡项目)</t>
   </si>
   <si>
-    <t>{{#fe: 87 t.begin</t>
+    <t>{{v_fe: 87 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">                非流动负债合计</t>
   </si>
   <si>
-    <t>{{#fe: 88 t.begin</t>
+    <t>{{v_fe: 88 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        负债差额(特殊报表科目)</t>
   </si>
   <si>
-    <t>{{#fe: 89 t.begin</t>
+    <t>{{v_fe: 89 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        负债差额(合计平衡项目)</t>
   </si>
   <si>
-    <t>{{#fe: 90 t.begin</t>
+    <t>{{v_fe: 90 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">                        负债合计</t>
   </si>
   <si>
-    <t>{{#fe: 91 t.begin</t>
+    <t>{{v_fe: 91 t.begin</t>
   </si>
   <si>
     <t>所有者权益（或股东权益）：</t>
   </si>
   <si>
-    <t>{{#fe: 92 t.begin</t>
+    <t>{{v_fe: 92 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        实收资本（或股本）</t>
   </si>
   <si>
-    <t>{{#fe: 93 t.begin</t>
+    <t>{{v_fe: 93 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        资本公积</t>
   </si>
   <si>
-    <t>{{#fe: 94 t.begin</t>
+    <t>{{v_fe: 94 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        减：库存股</t>
   </si>
   <si>
-    <t>{{#fe: 95 t.begin</t>
+    <t>{{v_fe: 95 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        盈余公积</t>
   </si>
   <si>
-    <t>{{#fe: 96 t.begin</t>
+    <t>{{v_fe: 96 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        专项储备</t>
   </si>
   <si>
-    <t>{{#fe: 97 t.begin</t>
+    <t>{{v_fe: 97 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        一般风险准备</t>
   </si>
   <si>
-    <t>{{#fe: 98 t.begin</t>
+    <t>{{v_fe: 98 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        未分配利润</t>
   </si>
   <si>
-    <t>{{#fe: 99 t.begin</t>
+    <t>{{v_fe: 99 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        外币报表折算差额</t>
   </si>
   <si>
-    <t>{{#fe: 100 t.begin</t>
+    <t>{{v_fe: 100 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        未确认的投资损失</t>
   </si>
   <si>
-    <t>{{#fe: 101 t.begin</t>
+    <t>{{v_fe: 101 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">                归属于母公司所有者权益合计</t>
   </si>
   <si>
-    <t>{{#fe: 102 t.begin</t>
+    <t>{{v_fe: 102 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        少数股东权益</t>
   </si>
   <si>
-    <t>{{#fe: 103 t.begin</t>
+    <t>{{v_fe: 103 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        股东权益差额(特殊报表科目)</t>
   </si>
   <si>
-    <t>{{#fe: 104 t.begin</t>
+    <t>{{v_fe: 104 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        股权权益差额(合计平衡项目)</t>
   </si>
   <si>
-    <t>{{#fe: 105 t.begin</t>
+    <t>{{v_fe: 105 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">                        所有者权益合计</t>
   </si>
   <si>
-    <t>{{#fe: 106 t.begin</t>
+    <t>{{v_fe: 106 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        负债及股东权益差额(特殊报表项目)</t>
   </si>
   <si>
-    <t>{{#fe: 107 t.begin</t>
+    <t>{{v_fe: 107 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">        负债及股东权益差额(合计平衡项目)</t>
   </si>
   <si>
-    <t>{{#fe: 108 t.begin</t>
+    <t>{{v_fe: 108 t.begin</t>
   </si>
   <si>
     <t xml:space="preserve">                                负债和所有者权益总计</t>
   </si>
   <si>
-    <t>{{#fe: 109 t.begin</t>
+    <t>{{v_fe: 109 t.begin</t>
   </si>
 </sst>
 </file>
@@ -692,8 +692,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -712,28 +712,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -754,17 +733,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -778,19 +763,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -802,9 +787,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -818,7 +802,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -834,29 +856,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -871,187 +871,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1068,8 +1068,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1077,43 +1077,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1134,21 +1114,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1162,151 +1127,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1652,7 +1652,7 @@
   <dimension ref="A1:G112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="12.4" outlineLevelCol="6"/>
